--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/17/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/17/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1691691691691692</v>
+        <v>0.8936893689368938</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1121.121121121121</v>
+        <v>751.1951195119512</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05965965965965966</v>
+        <v>0.08328832883288328</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7167167167167167</v>
+        <v>0.6165616561656165</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1449.44944944945</v>
+        <v>1159.73597359736</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>344.3443443443444</v>
+        <v>457.4257425742574</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>963.963963963964</v>
+        <v>79.02970297029702</v>
       </c>
     </row>
   </sheetData>
